--- a/meeting/GestionHedbo_Semaine2.xlsx
+++ b/meeting/GestionHedbo_Semaine2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Objet de la réunion : Hebdomadaire</t>
   </si>
@@ -149,15 +149,23 @@
   </si>
   <si>
     <t>Tableau: gestion de projet (interne): semaine du 27 janvier 2013</t>
+  </si>
+  <si>
+    <t>Reviser diagrammes contexte, use cases, DPF et séquence</t>
+  </si>
+  <si>
+    <t>Débuter rédaction livrable 1</t>
+  </si>
+  <si>
+    <t>Diagramme séquence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -202,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -291,94 +299,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,7 +492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,16 +778,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="2" max="2" width="24.28515625"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625"/>
     <col min="4" max="4" width="4.140625"/>
     <col min="5" max="5" width="10.140625"/>
@@ -767,627 +795,640 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="8">
         <v>41276</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="4">
+      <c r="D12" s="9"/>
+      <c r="E12" s="24">
         <v>180</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="24">
         <v>168</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="11">
         <v>41315</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="14">
+      <c r="D13" s="9"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="11">
         <v>41316</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="14">
+      <c r="D14" s="9"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="5">
         <v>4</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="11">
         <v>41315</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="14">
+      <c r="D15" s="9"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="5">
         <v>3</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="11">
         <v>41315</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="4">
+      <c r="D16" s="9"/>
+      <c r="E16" s="24">
         <v>180</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="24">
         <v>172</v>
       </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="16" t="s">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="11">
         <v>41315</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="14">
+      <c r="D17" s="9"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="16" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="8">
         <v>41276</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="14">
+      <c r="D18" s="9"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="11">
         <v>41315</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="5">
+      <c r="D19" s="9"/>
+      <c r="E19" s="19">
         <v>180</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="5">
         <v>3</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="19">
         <v>168</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="16" t="s">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="11">
         <v>41315</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="14">
+      <c r="D20" s="9"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="8">
         <v>41276</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="14">
+      <c r="D21" s="9"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="5">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="16" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="8">
         <v>41396</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="14">
+      <c r="D22" s="9"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="5">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="8">
+        <v>41396</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="28">
+        <v>180</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="28">
+        <f>E23-SUM(F23:F27)</f>
+        <v>165</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8">
+        <v>41396</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C25" s="11">
         <v>41304</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="4">
+      <c r="D25" s="9"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8">
+        <v>41396</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8">
+        <v>41396</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8">
+        <v>41396</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="19">
         <v>180</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F28" s="5">
         <v>3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G28" s="19">
+        <v>176</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8">
+        <v>41396</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11">
+        <v>41315</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="19">
+        <v>180</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30" s="19">
         <v>171</v>
       </c>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="11">
+        <v>41315</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="11">
+        <v>41315</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="19">
+        <v>180</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3</v>
+      </c>
+      <c r="G32" s="19">
+        <v>174</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="11">
+        <v>41315</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="8">
         <v>41396</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="14">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="17">
-        <v>41396</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="14">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="17">
-        <v>41396</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="5">
+      <c r="D34" s="9"/>
+      <c r="E34" s="22">
         <v>180</v>
       </c>
-      <c r="F26" s="14">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5">
-        <v>176</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="17">
-        <v>41396</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="14">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="20">
+      <c r="F34" s="5">
+        <v>2</v>
+      </c>
+      <c r="G34" s="22">
+        <v>166</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="11">
         <v>41315</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="5">
-        <v>180</v>
-      </c>
-      <c r="F28" s="14">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5">
-        <v>171</v>
-      </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="20">
-        <v>41315</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="14">
-        <v>6</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" s="19" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="20">
-        <v>41315</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="5">
-        <v>180</v>
-      </c>
-      <c r="F30" s="14">
-        <v>3</v>
-      </c>
-      <c r="G30" s="5">
-        <v>174</v>
-      </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="20">
-        <v>41315</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="14">
-        <v>3</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="20">
-        <v>41315</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="14">
-        <v>180</v>
-      </c>
-      <c r="F32" s="14">
+      <c r="D35" s="9"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="5">
         <v>12</v>
       </c>
-      <c r="G32" s="14">
-        <v>168</v>
-      </c>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="G35" s="31"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="14">
+      <c r="C36" s="23"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="5">
         <f>SUM(F12:F22)</f>
         <v>32</v>
       </c>
-      <c r="G33" s="14">
-        <f>180*3-F33</f>
+      <c r="G36" s="5">
+        <f>180*3-F36</f>
         <v>508</v>
       </c>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="14">
-        <f>SUM(F23:F29)</f>
-        <v>24</v>
-      </c>
-      <c r="G34" s="14">
-        <f>180*3-F34</f>
-        <v>516</v>
-      </c>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="5">
+        <f>SUM(F23:F31)</f>
+        <v>30</v>
+      </c>
+      <c r="G37" s="5">
+        <f>180*3-F37</f>
+        <v>510</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="14">
-        <f>SUM(F30:F32)</f>
-        <v>18</v>
-      </c>
-      <c r="G35" s="14">
-        <f>180*2-F35</f>
-        <v>342</v>
-      </c>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="5">
+        <f>SUM(F32:F35)</f>
+        <v>20</v>
+      </c>
+      <c r="G38" s="5">
+        <f>180*2-F38</f>
+        <v>340</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="14">
-        <f>F33+F34+F35</f>
-        <v>74</v>
-      </c>
-      <c r="G36" s="14">
-        <f>180*8-F36</f>
-        <v>1366</v>
-      </c>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="5">
+        <f>F36+F37+F38</f>
+        <v>82</v>
+      </c>
+      <c r="G39" s="5">
+        <f>180*8-F39</f>
+        <v>1358</v>
+      </c>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
@@ -1397,95 +1438,133 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
+  <mergeCells count="47">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
